--- a/guide41_othermodule.xlsx
+++ b/guide41_othermodule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F3AC3-0064-49E1-86D1-F0955A43A92C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23E71E1-29F9-46C6-8D6C-D6BF97B194C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="11175" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -78,16 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイトを表示させる：URL【準備中】</t>
-    <rPh sb="14" eb="16">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現在作成中です。
 順次公開いたしますので、公開前のページについては過去のマニュアルを参照してください。
 ■過去のマニュアル
@@ -301,6 +291,59 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>保存してコースに戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックします</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>url3.png</t>
+  </si>
+  <si>
+    <t>url4.png</t>
+  </si>
+  <si>
+    <t>サイトを表示させる：URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>アピアランス</t>
     </r>
     <r>
@@ -361,58 +404,9 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>にする</t>
+      <t>にします</t>
     </r>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>保存してコースに戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をクリックします</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>url3.png</t>
-  </si>
-  <si>
-    <t>url4.png</t>
   </si>
 </sst>
 </file>
@@ -972,7 +966,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -997,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1025,7 +1019,7 @@
     <row r="5" spans="1:4" ht="37.5">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1051,51 +1045,51 @@
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="37.5">
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
@@ -1148,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1188,7 +1182,7 @@
     <row r="7" spans="1:4" ht="54">
       <c r="A7" s="4"/>
       <c r="B7" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1275,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1315,7 +1309,7 @@
     <row r="7" spans="1:4" ht="54">
       <c r="A7" s="4"/>
       <c r="B7" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1370,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1410,7 +1404,7 @@
     <row r="7" spans="1:4" ht="54">
       <c r="A7" s="4"/>
       <c r="B7" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1436,33 +1430,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1711,26 +1678,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1747,4 +1722,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>